--- a/data/donnees_FLY LEASE_2023-07-24.xlsx
+++ b/data/donnees_FLY LEASE_2023-07-24.xlsx
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>79579085.64</v>
+        <v>81046412.64</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>-19419085.72</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>59432679.92</v>
+        <v>60900006.92</v>
       </c>
     </row>
     <row r="6">
